--- a/files/Apartment-Maintenance-Accounts.xlsx
+++ b/files/Apartment-Maintenance-Accounts.xlsx
@@ -2230,6 +2230,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="A138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comments:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="20"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rented</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C141" authorId="0">
       <text>
         <r>
@@ -2260,7 +2293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="181">
   <si>
     <t>Jan</t>
   </si>
@@ -3182,34 +3215,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3230,6 +3254,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3241,15 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3265,199 +3298,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4136,33 +3977,33 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4184,21 +4025,21 @@
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4209,10 +4050,10 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4463,8 +4304,8 @@
         <f>IF(B16="","",TEXT(B16,"dddd"))</f>
         <v/>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="12"/>
       <c r="G16" s="8"/>
       <c r="I16" s="8"/>
@@ -4485,8 +4326,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="12"/>
       <c r="G17" s="8"/>
       <c r="I17" s="8"/>
@@ -4507,8 +4348,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="I18" s="8"/>
@@ -4529,8 +4370,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="12"/>
       <c r="G19" s="8"/>
       <c r="I19" s="8"/>
@@ -4551,8 +4392,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="12"/>
       <c r="G20" s="8"/>
       <c r="I20" s="8"/>
@@ -4572,8 +4413,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="I21" s="8"/>
@@ -4588,8 +4429,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
     </row>
@@ -4600,8 +4441,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
     </row>
@@ -4612,8 +4453,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="12"/>
       <c r="G24" s="8"/>
     </row>
@@ -4624,8 +4465,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="12"/>
       <c r="G25" s="8"/>
     </row>
@@ -4636,8 +4477,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="12"/>
       <c r="G26" s="8"/>
     </row>
@@ -4648,8 +4489,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
     </row>
@@ -4660,8 +4501,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="12"/>
       <c r="G28" s="8"/>
     </row>
@@ -4672,8 +4513,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="12"/>
       <c r="G29" s="8"/>
     </row>
@@ -4684,8 +4525,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="12"/>
       <c r="G30" s="8"/>
     </row>
@@ -4696,8 +4537,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="12"/>
       <c r="G31" s="8"/>
     </row>
@@ -4708,8 +4549,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
     </row>
@@ -4720,8 +4561,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="12"/>
       <c r="G33" s="8"/>
     </row>
@@ -4732,8 +4573,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="12"/>
       <c r="G34" s="8"/>
     </row>
@@ -4744,8 +4585,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="12"/>
       <c r="G35" s="8"/>
     </row>
@@ -4756,8 +4597,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
     </row>
@@ -4768,8 +4609,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="12"/>
       <c r="G37" s="8"/>
     </row>
@@ -4780,16 +4621,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="12"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
@@ -4816,22 +4657,22 @@
       <c r="C41" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="30"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4842,10 +4683,10 @@
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
@@ -5002,8 +4843,8 @@
         <f>IF(B52="","",TEXT(B52,"dddd"))</f>
         <v/>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="12"/>
       <c r="G52" s="8"/>
     </row>
@@ -5014,8 +4855,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="12"/>
       <c r="G53" s="8"/>
     </row>
@@ -5026,8 +4867,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="12"/>
       <c r="G54" s="8"/>
     </row>
@@ -5038,8 +4879,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="12"/>
       <c r="G55" s="8"/>
     </row>
@@ -5050,8 +4891,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="12"/>
       <c r="G56" s="8"/>
     </row>
@@ -5062,8 +4903,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="12"/>
       <c r="G57" s="8"/>
     </row>
@@ -5074,8 +4915,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="12"/>
       <c r="G58" s="8"/>
     </row>
@@ -5086,8 +4927,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="12"/>
       <c r="G59" s="8"/>
     </row>
@@ -5098,8 +4939,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="12"/>
       <c r="G60" s="8"/>
     </row>
@@ -5110,8 +4951,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="12"/>
       <c r="G61" s="8"/>
     </row>
@@ -5122,8 +4963,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="12"/>
       <c r="G62" s="8"/>
     </row>
@@ -5134,8 +4975,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="12"/>
       <c r="G63" s="8"/>
     </row>
@@ -5146,8 +4987,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="12"/>
       <c r="G64" s="8"/>
     </row>
@@ -5158,8 +4999,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="12"/>
       <c r="G65" s="8"/>
     </row>
@@ -5170,8 +5011,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="12"/>
       <c r="G66" s="8"/>
     </row>
@@ -5182,8 +5023,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="12"/>
       <c r="G67" s="8"/>
     </row>
@@ -5194,8 +5035,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="12"/>
       <c r="G68" s="8"/>
     </row>
@@ -5206,8 +5047,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="12"/>
       <c r="G69" s="8"/>
     </row>
@@ -5218,8 +5059,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="12"/>
       <c r="G70" s="8"/>
     </row>
@@ -5230,8 +5071,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="12"/>
       <c r="G71" s="8"/>
     </row>
@@ -5242,8 +5083,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="12"/>
       <c r="G72" s="8"/>
     </row>
@@ -5254,8 +5095,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="12"/>
       <c r="G73" s="8"/>
     </row>
@@ -5266,16 +5107,16 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="12"/>
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="7" t="s">
         <v>19</v>
       </c>
@@ -5302,22 +5143,22 @@
       <c r="C77" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="30"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
       <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5328,10 +5169,10 @@
       <c r="C79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="31"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="2" t="s">
         <v>6</v>
       </c>
@@ -5488,10 +5329,10 @@
         <f>IF(B88="","",TEXT(B88,"dddd"))</f>
         <v/>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="34"/>
+      <c r="E88" s="32"/>
       <c r="F88" s="12">
         <v>5000</v>
       </c>
@@ -5504,8 +5345,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="12"/>
       <c r="G89" s="8"/>
     </row>
@@ -5516,8 +5357,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="12"/>
       <c r="G90" s="8"/>
     </row>
@@ -5528,8 +5369,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
       <c r="F91" s="12"/>
       <c r="G91" s="8"/>
     </row>
@@ -5540,8 +5381,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
       <c r="F92" s="12"/>
       <c r="G92" s="8"/>
     </row>
@@ -5552,8 +5393,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
       <c r="F93" s="12"/>
       <c r="G93" s="8"/>
     </row>
@@ -5564,8 +5405,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
       <c r="F94" s="12"/>
       <c r="G94" s="8"/>
     </row>
@@ -5576,8 +5417,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
       <c r="F95" s="12"/>
       <c r="G95" s="8"/>
     </row>
@@ -5588,8 +5429,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
       <c r="F96" s="12"/>
       <c r="G96" s="8"/>
     </row>
@@ -5600,8 +5441,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
       <c r="F97" s="12"/>
       <c r="G97" s="8"/>
     </row>
@@ -5612,8 +5453,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="12"/>
       <c r="G98" s="8"/>
     </row>
@@ -5624,8 +5465,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
       <c r="F99" s="12"/>
       <c r="G99" s="8"/>
     </row>
@@ -5636,8 +5477,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
       <c r="F100" s="12"/>
       <c r="G100" s="8"/>
     </row>
@@ -5648,8 +5489,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
       <c r="F101" s="12"/>
       <c r="G101" s="8"/>
     </row>
@@ -5660,8 +5501,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
       <c r="F102" s="12"/>
       <c r="G102" s="8"/>
     </row>
@@ -5672,8 +5513,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="12"/>
       <c r="G103" s="8"/>
     </row>
@@ -5684,8 +5525,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
       <c r="F104" s="12"/>
       <c r="G104" s="8"/>
     </row>
@@ -5696,8 +5537,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
       <c r="F105" s="12"/>
       <c r="G105" s="8"/>
     </row>
@@ -5708,8 +5549,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
       <c r="F106" s="12"/>
       <c r="G106" s="8"/>
     </row>
@@ -5720,8 +5561,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
       <c r="F107" s="12"/>
       <c r="G107" s="8"/>
     </row>
@@ -5732,8 +5573,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
       <c r="F108" s="12"/>
       <c r="G108" s="8"/>
     </row>
@@ -5744,8 +5585,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
       <c r="F109" s="12"/>
       <c r="G109" s="8"/>
     </row>
@@ -5756,16 +5597,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
       <c r="F110" s="12"/>
       <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="37"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="7" t="s">
         <v>19</v>
       </c>
@@ -5792,22 +5633,22 @@
       <c r="C113" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="29"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="30"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="44"/>
       <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32" t="s">
+      <c r="C114" s="34"/>
+      <c r="D114" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
       <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5818,10 +5659,10 @@
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="31"/>
+      <c r="E115" s="34"/>
       <c r="F115" s="2" t="s">
         <v>6</v>
       </c>
@@ -5978,8 +5819,8 @@
         <f>IF(B124="","",TEXT(B124,"dddd"))</f>
         <v/>
       </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="12"/>
       <c r="G124" s="8"/>
     </row>
@@ -5990,8 +5831,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
       <c r="F125" s="12"/>
       <c r="G125" s="8"/>
     </row>
@@ -6002,8 +5843,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="12"/>
       <c r="G126" s="8"/>
     </row>
@@ -6014,8 +5855,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="12"/>
       <c r="G127" s="8"/>
     </row>
@@ -6026,8 +5867,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
       <c r="F128" s="12"/>
       <c r="G128" s="8"/>
     </row>
@@ -6038,8 +5879,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
       <c r="F129" s="12"/>
       <c r="G129" s="8"/>
     </row>
@@ -6050,8 +5891,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
       <c r="F130" s="12"/>
       <c r="G130" s="8"/>
     </row>
@@ -6062,8 +5903,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
       <c r="F131" s="12"/>
       <c r="G131" s="8"/>
     </row>
@@ -6074,8 +5915,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
       <c r="F132" s="12"/>
       <c r="G132" s="8"/>
     </row>
@@ -6086,8 +5927,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
       <c r="F133" s="12"/>
       <c r="G133" s="8"/>
     </row>
@@ -6098,8 +5939,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="12"/>
       <c r="G134" s="8"/>
     </row>
@@ -6110,8 +5951,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
       <c r="F135" s="12"/>
       <c r="G135" s="8"/>
     </row>
@@ -6122,8 +5963,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
       <c r="F136" s="12"/>
       <c r="G136" s="8"/>
     </row>
@@ -6134,8 +5975,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
       <c r="F137" s="12"/>
       <c r="G137" s="8"/>
     </row>
@@ -6146,8 +5987,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
       <c r="F138" s="12"/>
       <c r="G138" s="8"/>
     </row>
@@ -6158,8 +5999,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
       <c r="F139" s="12"/>
       <c r="G139" s="8"/>
     </row>
@@ -6170,8 +6011,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
       <c r="F140" s="12"/>
       <c r="G140" s="8"/>
     </row>
@@ -6182,8 +6023,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
       <c r="F141" s="12"/>
       <c r="G141" s="8"/>
     </row>
@@ -6194,8 +6035,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
       <c r="F142" s="12"/>
       <c r="G142" s="8"/>
     </row>
@@ -6206,8 +6047,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
       <c r="F143" s="12"/>
       <c r="G143" s="8"/>
     </row>
@@ -6218,8 +6059,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
       <c r="F144" s="12"/>
       <c r="G144" s="8"/>
     </row>
@@ -6230,8 +6071,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
       <c r="F145" s="12"/>
       <c r="G145" s="8"/>
     </row>
@@ -6242,16 +6083,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
       <c r="F146" s="12"/>
       <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="7" t="s">
         <v>19</v>
       </c>
@@ -6278,22 +6119,22 @@
       <c r="C149" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="29"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="30"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="44"/>
       <c r="G149" s="8"/>
     </row>
     <row r="150" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="32" t="s">
+      <c r="C150" s="34"/>
+      <c r="D150" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
       <c r="G150" s="8"/>
     </row>
     <row r="151" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6304,10 +6145,10 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="31"/>
+      <c r="E151" s="34"/>
       <c r="F151" s="2" t="s">
         <v>6</v>
       </c>
@@ -6464,8 +6305,8 @@
         <f>IF(B160="","",TEXT(B160,"dddd"))</f>
         <v/>
       </c>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
       <c r="F160" s="12"/>
       <c r="G160" s="8"/>
     </row>
@@ -6476,8 +6317,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
       <c r="F161" s="12"/>
       <c r="G161" s="8"/>
     </row>
@@ -6488,8 +6329,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
       <c r="F162" s="12"/>
       <c r="G162" s="8"/>
     </row>
@@ -6500,8 +6341,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
       <c r="F163" s="12"/>
       <c r="G163" s="8"/>
     </row>
@@ -6512,8 +6353,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
       <c r="F164" s="12"/>
       <c r="G164" s="8"/>
     </row>
@@ -6524,8 +6365,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
       <c r="F165" s="12"/>
       <c r="G165" s="8"/>
     </row>
@@ -6536,8 +6377,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
       <c r="F166" s="12"/>
       <c r="G166" s="8"/>
     </row>
@@ -6548,8 +6389,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
       <c r="F167" s="12"/>
       <c r="G167" s="8"/>
     </row>
@@ -6560,8 +6401,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
       <c r="F168" s="12"/>
       <c r="G168" s="8"/>
     </row>
@@ -6572,8 +6413,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
       <c r="F169" s="12"/>
       <c r="G169" s="8"/>
     </row>
@@ -6584,8 +6425,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
       <c r="F170" s="12"/>
       <c r="G170" s="8"/>
     </row>
@@ -6596,8 +6437,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
       <c r="F171" s="12"/>
       <c r="G171" s="8"/>
     </row>
@@ -6608,8 +6449,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
       <c r="F172" s="12"/>
       <c r="G172" s="8"/>
     </row>
@@ -6620,8 +6461,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
       <c r="F173" s="12"/>
       <c r="G173" s="8"/>
     </row>
@@ -6632,8 +6473,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
       <c r="F174" s="12"/>
       <c r="G174" s="8"/>
     </row>
@@ -6644,8 +6485,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D175" s="34"/>
-      <c r="E175" s="34"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
       <c r="F175" s="12"/>
       <c r="G175" s="8"/>
     </row>
@@ -6656,8 +6497,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
       <c r="F176" s="12"/>
       <c r="G176" s="8"/>
     </row>
@@ -6668,8 +6509,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D177" s="34"/>
-      <c r="E177" s="34"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
       <c r="F177" s="12"/>
       <c r="G177" s="8"/>
     </row>
@@ -6680,8 +6521,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D178" s="34"/>
-      <c r="E178" s="34"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
       <c r="F178" s="12"/>
       <c r="G178" s="8"/>
     </row>
@@ -6692,8 +6533,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D179" s="34"/>
-      <c r="E179" s="34"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
       <c r="F179" s="12"/>
       <c r="G179" s="8"/>
     </row>
@@ -6704,8 +6545,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D180" s="34"/>
-      <c r="E180" s="34"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
       <c r="F180" s="12"/>
       <c r="G180" s="8"/>
     </row>
@@ -6716,8 +6557,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
       <c r="F181" s="12"/>
       <c r="G181" s="8"/>
     </row>
@@ -6728,16 +6569,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
       <c r="F182" s="12"/>
       <c r="G182" s="8"/>
     </row>
     <row r="183" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="37"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="7" t="s">
         <v>19</v>
       </c>
@@ -6764,22 +6605,22 @@
       <c r="C185" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D185" s="29"/>
-      <c r="E185" s="38"/>
-      <c r="F185" s="30"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="44"/>
       <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="31"/>
-      <c r="D186" s="32" t="s">
+      <c r="C186" s="34"/>
+      <c r="D186" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
       <c r="G186" s="8"/>
     </row>
     <row r="187" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6790,10 +6631,10 @@
       <c r="C187" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="31" t="s">
+      <c r="D187" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E187" s="31"/>
+      <c r="E187" s="34"/>
       <c r="F187" s="2" t="s">
         <v>6</v>
       </c>
@@ -6950,8 +6791,8 @@
         <f>IF(B196="","",TEXT(B196,"dddd"))</f>
         <v/>
       </c>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
       <c r="F196" s="12"/>
       <c r="G196" s="8"/>
     </row>
@@ -6962,8 +6803,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
       <c r="F197" s="12"/>
       <c r="G197" s="8"/>
     </row>
@@ -6974,8 +6815,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
       <c r="F198" s="12"/>
       <c r="G198" s="8"/>
     </row>
@@ -6986,8 +6827,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
       <c r="F199" s="12"/>
       <c r="G199" s="8"/>
     </row>
@@ -6998,8 +6839,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
       <c r="F200" s="12"/>
       <c r="G200" s="8"/>
     </row>
@@ -7010,8 +6851,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
       <c r="F201" s="12"/>
       <c r="G201" s="8"/>
     </row>
@@ -7022,8 +6863,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
       <c r="F202" s="12"/>
       <c r="G202" s="8"/>
     </row>
@@ -7034,8 +6875,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
       <c r="F203" s="12"/>
       <c r="G203" s="8"/>
     </row>
@@ -7046,8 +6887,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
       <c r="F204" s="12"/>
       <c r="G204" s="8"/>
     </row>
@@ -7058,8 +6899,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
       <c r="F205" s="12"/>
       <c r="G205" s="8"/>
     </row>
@@ -7070,8 +6911,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
       <c r="F206" s="12"/>
       <c r="G206" s="8"/>
     </row>
@@ -7082,8 +6923,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
       <c r="F207" s="12"/>
       <c r="G207" s="8"/>
     </row>
@@ -7094,8 +6935,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
       <c r="F208" s="12"/>
       <c r="G208" s="8"/>
     </row>
@@ -7106,8 +6947,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
       <c r="F209" s="12"/>
       <c r="G209" s="8"/>
     </row>
@@ -7118,8 +6959,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
       <c r="F210" s="12"/>
       <c r="G210" s="8"/>
     </row>
@@ -7130,8 +6971,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
       <c r="F211" s="12"/>
       <c r="G211" s="8"/>
     </row>
@@ -7142,8 +6983,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
       <c r="F212" s="12"/>
       <c r="G212" s="8"/>
     </row>
@@ -7154,8 +6995,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
       <c r="F213" s="12"/>
       <c r="G213" s="8"/>
     </row>
@@ -7166,8 +7007,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
       <c r="F214" s="12"/>
       <c r="G214" s="8"/>
     </row>
@@ -7178,8 +7019,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
       <c r="F215" s="12"/>
       <c r="G215" s="8"/>
     </row>
@@ -7190,8 +7031,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
       <c r="F216" s="12"/>
       <c r="G216" s="8"/>
     </row>
@@ -7202,8 +7043,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
       <c r="F217" s="12"/>
       <c r="G217" s="8"/>
     </row>
@@ -7214,16 +7055,16 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
       <c r="F218" s="12"/>
       <c r="G218" s="8"/>
     </row>
     <row r="219" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="37"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="47"/>
       <c r="E219" s="7" t="s">
         <v>19</v>
       </c>
@@ -7250,22 +7091,22 @@
       <c r="C221" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D221" s="29"/>
-      <c r="E221" s="38"/>
-      <c r="F221" s="30"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="44"/>
       <c r="G221" s="8"/>
     </row>
     <row r="222" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="31"/>
-      <c r="D222" s="32" t="s">
+      <c r="C222" s="34"/>
+      <c r="D222" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="35"/>
       <c r="G222" s="8"/>
     </row>
     <row r="223" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7276,10 +7117,10 @@
       <c r="C223" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E223" s="31"/>
+      <c r="E223" s="34"/>
       <c r="F223" s="2" t="s">
         <v>6</v>
       </c>
@@ -7436,8 +7277,8 @@
         <f>IF(B232="","",TEXT(B232,"dddd"))</f>
         <v/>
       </c>
-      <c r="D232" s="34"/>
-      <c r="E232" s="34"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
       <c r="F232" s="12"/>
       <c r="G232" s="8"/>
     </row>
@@ -7448,8 +7289,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D233" s="34"/>
-      <c r="E233" s="34"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
       <c r="F233" s="12"/>
       <c r="G233" s="8"/>
     </row>
@@ -7460,8 +7301,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="32"/>
       <c r="F234" s="12"/>
       <c r="G234" s="8"/>
     </row>
@@ -7472,8 +7313,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
       <c r="F235" s="12"/>
       <c r="G235" s="8"/>
     </row>
@@ -7484,8 +7325,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D236" s="34"/>
-      <c r="E236" s="34"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="32"/>
       <c r="F236" s="12"/>
       <c r="G236" s="8"/>
     </row>
@@ -7496,8 +7337,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="32"/>
       <c r="F237" s="12"/>
       <c r="G237" s="8"/>
     </row>
@@ -7508,8 +7349,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
       <c r="F238" s="12"/>
       <c r="G238" s="8"/>
     </row>
@@ -7520,8 +7361,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
       <c r="F239" s="12"/>
       <c r="G239" s="8"/>
     </row>
@@ -7532,8 +7373,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
       <c r="F240" s="12"/>
       <c r="G240" s="8"/>
     </row>
@@ -7544,8 +7385,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D241" s="34"/>
-      <c r="E241" s="34"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="32"/>
       <c r="F241" s="12"/>
       <c r="G241" s="8"/>
     </row>
@@ -7556,8 +7397,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D242" s="34"/>
-      <c r="E242" s="34"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="32"/>
       <c r="F242" s="12"/>
       <c r="G242" s="8"/>
     </row>
@@ -7568,8 +7409,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
       <c r="F243" s="12"/>
       <c r="G243" s="8"/>
     </row>
@@ -7580,8 +7421,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
       <c r="F244" s="12"/>
       <c r="G244" s="8"/>
     </row>
@@ -7592,8 +7433,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D245" s="34"/>
-      <c r="E245" s="34"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
       <c r="F245" s="12"/>
       <c r="G245" s="8"/>
     </row>
@@ -7604,8 +7445,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
+      <c r="D246" s="32"/>
+      <c r="E246" s="32"/>
       <c r="F246" s="12"/>
       <c r="G246" s="8"/>
     </row>
@@ -7616,8 +7457,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D247" s="34"/>
-      <c r="E247" s="34"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="32"/>
       <c r="F247" s="12"/>
       <c r="G247" s="8"/>
     </row>
@@ -7628,8 +7469,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D248" s="34"/>
-      <c r="E248" s="34"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
       <c r="F248" s="12"/>
       <c r="G248" s="8"/>
     </row>
@@ -7640,8 +7481,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D249" s="34"/>
-      <c r="E249" s="34"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="32"/>
       <c r="F249" s="12"/>
       <c r="G249" s="8"/>
     </row>
@@ -7652,8 +7493,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
       <c r="F250" s="12"/>
       <c r="G250" s="8"/>
     </row>
@@ -7664,8 +7505,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="32"/>
       <c r="F251" s="12"/>
       <c r="G251" s="8"/>
     </row>
@@ -7676,8 +7517,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
       <c r="F252" s="12"/>
       <c r="G252" s="8"/>
     </row>
@@ -7688,8 +7529,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="32"/>
       <c r="F253" s="12"/>
       <c r="G253" s="8"/>
     </row>
@@ -7700,16 +7541,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="32"/>
       <c r="F254" s="12"/>
       <c r="G254" s="8"/>
     </row>
     <row r="255" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
-      <c r="B255" s="35"/>
-      <c r="C255" s="36"/>
-      <c r="D255" s="37"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="46"/>
+      <c r="D255" s="47"/>
       <c r="E255" s="7" t="s">
         <v>19</v>
       </c>
@@ -7736,22 +7577,22 @@
       <c r="C257" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D257" s="29"/>
-      <c r="E257" s="38"/>
-      <c r="F257" s="30"/>
+      <c r="D257" s="42"/>
+      <c r="E257" s="43"/>
+      <c r="F257" s="44"/>
       <c r="G257" s="8"/>
     </row>
     <row r="258" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
-      <c r="B258" s="31" t="s">
+      <c r="B258" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="31"/>
-      <c r="D258" s="32" t="s">
+      <c r="C258" s="34"/>
+      <c r="D258" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="35"/>
       <c r="G258" s="8"/>
     </row>
     <row r="259" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7762,10 +7603,10 @@
       <c r="C259" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D259" s="31" t="s">
+      <c r="D259" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E259" s="31"/>
+      <c r="E259" s="34"/>
       <c r="F259" s="2" t="s">
         <v>6</v>
       </c>
@@ -7922,8 +7763,8 @@
         <f>IF(B268="","",TEXT(B268,"dddd"))</f>
         <v/>
       </c>
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
       <c r="F268" s="12"/>
       <c r="G268" s="8"/>
     </row>
@@ -7934,8 +7775,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
       <c r="F269" s="12"/>
       <c r="G269" s="8"/>
     </row>
@@ -7946,8 +7787,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D270" s="34"/>
-      <c r="E270" s="34"/>
+      <c r="D270" s="32"/>
+      <c r="E270" s="32"/>
       <c r="F270" s="12"/>
       <c r="G270" s="8"/>
     </row>
@@ -7958,8 +7799,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D271" s="34"/>
-      <c r="E271" s="34"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
       <c r="F271" s="12"/>
       <c r="G271" s="8"/>
     </row>
@@ -7970,8 +7811,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D272" s="34"/>
-      <c r="E272" s="34"/>
+      <c r="D272" s="32"/>
+      <c r="E272" s="32"/>
       <c r="F272" s="12"/>
       <c r="G272" s="8"/>
     </row>
@@ -7982,8 +7823,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D273" s="34"/>
-      <c r="E273" s="34"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
       <c r="F273" s="12"/>
       <c r="G273" s="8"/>
     </row>
@@ -7994,8 +7835,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D274" s="34"/>
-      <c r="E274" s="34"/>
+      <c r="D274" s="32"/>
+      <c r="E274" s="32"/>
       <c r="F274" s="12"/>
       <c r="G274" s="8"/>
     </row>
@@ -8006,8 +7847,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D275" s="34"/>
-      <c r="E275" s="34"/>
+      <c r="D275" s="32"/>
+      <c r="E275" s="32"/>
       <c r="F275" s="12"/>
       <c r="G275" s="8"/>
     </row>
@@ -8018,8 +7859,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D276" s="34"/>
-      <c r="E276" s="34"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
       <c r="F276" s="12"/>
       <c r="G276" s="8"/>
     </row>
@@ -8030,8 +7871,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D277" s="34"/>
-      <c r="E277" s="34"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
       <c r="F277" s="12"/>
       <c r="G277" s="8"/>
     </row>
@@ -8042,8 +7883,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D278" s="34"/>
-      <c r="E278" s="34"/>
+      <c r="D278" s="32"/>
+      <c r="E278" s="32"/>
       <c r="F278" s="12"/>
       <c r="G278" s="8"/>
     </row>
@@ -8054,8 +7895,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D279" s="34"/>
-      <c r="E279" s="34"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="32"/>
       <c r="F279" s="12"/>
       <c r="G279" s="8"/>
     </row>
@@ -8066,8 +7907,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
+      <c r="D280" s="32"/>
+      <c r="E280" s="32"/>
       <c r="F280" s="12"/>
       <c r="G280" s="8"/>
     </row>
@@ -8078,8 +7919,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
+      <c r="D281" s="32"/>
+      <c r="E281" s="32"/>
       <c r="F281" s="12"/>
       <c r="G281" s="8"/>
     </row>
@@ -8090,8 +7931,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D282" s="34"/>
-      <c r="E282" s="34"/>
+      <c r="D282" s="32"/>
+      <c r="E282" s="32"/>
       <c r="F282" s="12"/>
       <c r="G282" s="8"/>
     </row>
@@ -8102,8 +7943,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D283" s="34"/>
-      <c r="E283" s="34"/>
+      <c r="D283" s="32"/>
+      <c r="E283" s="32"/>
       <c r="F283" s="12"/>
       <c r="G283" s="8"/>
     </row>
@@ -8114,8 +7955,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D284" s="34"/>
-      <c r="E284" s="34"/>
+      <c r="D284" s="32"/>
+      <c r="E284" s="32"/>
       <c r="F284" s="12"/>
       <c r="G284" s="8"/>
     </row>
@@ -8126,8 +7967,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="32"/>
       <c r="F285" s="12"/>
       <c r="G285" s="8"/>
     </row>
@@ -8138,8 +7979,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D286" s="34"/>
-      <c r="E286" s="34"/>
+      <c r="D286" s="32"/>
+      <c r="E286" s="32"/>
       <c r="F286" s="12"/>
       <c r="G286" s="8"/>
     </row>
@@ -8150,8 +7991,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D287" s="34"/>
-      <c r="E287" s="34"/>
+      <c r="D287" s="32"/>
+      <c r="E287" s="32"/>
       <c r="F287" s="12"/>
       <c r="G287" s="8"/>
     </row>
@@ -8162,8 +8003,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D288" s="34"/>
-      <c r="E288" s="34"/>
+      <c r="D288" s="32"/>
+      <c r="E288" s="32"/>
       <c r="F288" s="12"/>
       <c r="G288" s="8"/>
     </row>
@@ -8174,8 +8015,8 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
+      <c r="D289" s="32"/>
+      <c r="E289" s="32"/>
       <c r="F289" s="12"/>
       <c r="G289" s="8"/>
     </row>
@@ -8186,16 +8027,16 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D290" s="34"/>
-      <c r="E290" s="34"/>
+      <c r="D290" s="32"/>
+      <c r="E290" s="32"/>
       <c r="F290" s="12"/>
       <c r="G290" s="8"/>
     </row>
     <row r="291" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
-      <c r="B291" s="35"/>
-      <c r="C291" s="36"/>
-      <c r="D291" s="37"/>
+      <c r="B291" s="45"/>
+      <c r="C291" s="46"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="7" t="s">
         <v>19</v>
       </c>
@@ -8222,22 +8063,22 @@
       <c r="C293" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D293" s="29"/>
-      <c r="E293" s="38"/>
-      <c r="F293" s="30"/>
+      <c r="D293" s="42"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="44"/>
       <c r="G293" s="8"/>
     </row>
     <row r="294" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
-      <c r="B294" s="31" t="s">
+      <c r="B294" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C294" s="31"/>
-      <c r="D294" s="32" t="s">
+      <c r="C294" s="34"/>
+      <c r="D294" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E294" s="32"/>
-      <c r="F294" s="32"/>
+      <c r="E294" s="35"/>
+      <c r="F294" s="35"/>
       <c r="G294" s="8"/>
     </row>
     <row r="295" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8248,10 +8089,10 @@
       <c r="C295" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D295" s="31" t="s">
+      <c r="D295" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E295" s="31"/>
+      <c r="E295" s="34"/>
       <c r="F295" s="2" t="s">
         <v>6</v>
       </c>
@@ -8408,8 +8249,8 @@
         <f>IF(B304="","",TEXT(B304,"dddd"))</f>
         <v/>
       </c>
-      <c r="D304" s="34"/>
-      <c r="E304" s="34"/>
+      <c r="D304" s="32"/>
+      <c r="E304" s="32"/>
       <c r="F304" s="12"/>
       <c r="G304" s="8"/>
     </row>
@@ -8420,8 +8261,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D305" s="34"/>
-      <c r="E305" s="34"/>
+      <c r="D305" s="32"/>
+      <c r="E305" s="32"/>
       <c r="F305" s="12"/>
       <c r="G305" s="8"/>
     </row>
@@ -8432,8 +8273,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D306" s="34"/>
-      <c r="E306" s="34"/>
+      <c r="D306" s="32"/>
+      <c r="E306" s="32"/>
       <c r="F306" s="12"/>
       <c r="G306" s="8"/>
     </row>
@@ -8444,8 +8285,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
+      <c r="D307" s="32"/>
+      <c r="E307" s="32"/>
       <c r="F307" s="12"/>
       <c r="G307" s="8"/>
     </row>
@@ -8456,8 +8297,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D308" s="34"/>
-      <c r="E308" s="34"/>
+      <c r="D308" s="32"/>
+      <c r="E308" s="32"/>
       <c r="F308" s="12"/>
       <c r="G308" s="8"/>
     </row>
@@ -8468,8 +8309,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D309" s="34"/>
-      <c r="E309" s="34"/>
+      <c r="D309" s="32"/>
+      <c r="E309" s="32"/>
       <c r="F309" s="12"/>
       <c r="G309" s="8"/>
     </row>
@@ -8480,8 +8321,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D310" s="34"/>
-      <c r="E310" s="34"/>
+      <c r="D310" s="32"/>
+      <c r="E310" s="32"/>
       <c r="F310" s="12"/>
       <c r="G310" s="8"/>
     </row>
@@ -8492,8 +8333,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D311" s="34"/>
-      <c r="E311" s="34"/>
+      <c r="D311" s="32"/>
+      <c r="E311" s="32"/>
       <c r="F311" s="12"/>
       <c r="G311" s="8"/>
     </row>
@@ -8504,8 +8345,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D312" s="34"/>
-      <c r="E312" s="34"/>
+      <c r="D312" s="32"/>
+      <c r="E312" s="32"/>
       <c r="F312" s="12"/>
       <c r="G312" s="8"/>
     </row>
@@ -8516,8 +8357,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D313" s="34"/>
-      <c r="E313" s="34"/>
+      <c r="D313" s="32"/>
+      <c r="E313" s="32"/>
       <c r="F313" s="12"/>
       <c r="G313" s="8"/>
     </row>
@@ -8528,8 +8369,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D314" s="34"/>
-      <c r="E314" s="34"/>
+      <c r="D314" s="32"/>
+      <c r="E314" s="32"/>
       <c r="F314" s="12"/>
       <c r="G314" s="8"/>
     </row>
@@ -8540,8 +8381,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D315" s="34"/>
-      <c r="E315" s="34"/>
+      <c r="D315" s="32"/>
+      <c r="E315" s="32"/>
       <c r="F315" s="12"/>
       <c r="G315" s="8"/>
     </row>
@@ -8552,8 +8393,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D316" s="34"/>
-      <c r="E316" s="34"/>
+      <c r="D316" s="32"/>
+      <c r="E316" s="32"/>
       <c r="F316" s="12"/>
       <c r="G316" s="8"/>
     </row>
@@ -8564,8 +8405,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D317" s="34"/>
-      <c r="E317" s="34"/>
+      <c r="D317" s="32"/>
+      <c r="E317" s="32"/>
       <c r="F317" s="12"/>
       <c r="G317" s="8"/>
     </row>
@@ -8576,8 +8417,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D318" s="34"/>
-      <c r="E318" s="34"/>
+      <c r="D318" s="32"/>
+      <c r="E318" s="32"/>
       <c r="F318" s="12"/>
       <c r="G318" s="8"/>
     </row>
@@ -8588,8 +8429,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D319" s="34"/>
-      <c r="E319" s="34"/>
+      <c r="D319" s="32"/>
+      <c r="E319" s="32"/>
       <c r="F319" s="12"/>
       <c r="G319" s="8"/>
     </row>
@@ -8600,8 +8441,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D320" s="34"/>
-      <c r="E320" s="34"/>
+      <c r="D320" s="32"/>
+      <c r="E320" s="32"/>
       <c r="F320" s="12"/>
       <c r="G320" s="8"/>
     </row>
@@ -8612,8 +8453,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D321" s="34"/>
-      <c r="E321" s="34"/>
+      <c r="D321" s="32"/>
+      <c r="E321" s="32"/>
       <c r="F321" s="12"/>
       <c r="G321" s="8"/>
     </row>
@@ -8624,8 +8465,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D322" s="34"/>
-      <c r="E322" s="34"/>
+      <c r="D322" s="32"/>
+      <c r="E322" s="32"/>
       <c r="F322" s="12"/>
       <c r="G322" s="8"/>
     </row>
@@ -8636,8 +8477,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D323" s="34"/>
-      <c r="E323" s="34"/>
+      <c r="D323" s="32"/>
+      <c r="E323" s="32"/>
       <c r="F323" s="12"/>
       <c r="G323" s="8"/>
     </row>
@@ -8648,8 +8489,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D324" s="34"/>
-      <c r="E324" s="34"/>
+      <c r="D324" s="32"/>
+      <c r="E324" s="32"/>
       <c r="F324" s="12"/>
       <c r="G324" s="8"/>
     </row>
@@ -8660,8 +8501,8 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D325" s="34"/>
-      <c r="E325" s="34"/>
+      <c r="D325" s="32"/>
+      <c r="E325" s="32"/>
       <c r="F325" s="12"/>
       <c r="G325" s="8"/>
     </row>
@@ -8672,16 +8513,16 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D326" s="34"/>
-      <c r="E326" s="34"/>
+      <c r="D326" s="32"/>
+      <c r="E326" s="32"/>
       <c r="F326" s="12"/>
       <c r="G326" s="8"/>
     </row>
     <row r="327" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
-      <c r="B327" s="35"/>
-      <c r="C327" s="36"/>
-      <c r="D327" s="37"/>
+      <c r="B327" s="45"/>
+      <c r="C327" s="46"/>
+      <c r="D327" s="47"/>
       <c r="E327" s="7" t="s">
         <v>19</v>
       </c>
@@ -8708,22 +8549,22 @@
       <c r="C329" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="29"/>
-      <c r="E329" s="38"/>
-      <c r="F329" s="30"/>
+      <c r="D329" s="42"/>
+      <c r="E329" s="43"/>
+      <c r="F329" s="44"/>
       <c r="G329" s="8"/>
     </row>
     <row r="330" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
-      <c r="B330" s="31" t="s">
+      <c r="B330" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C330" s="31"/>
-      <c r="D330" s="32" t="s">
+      <c r="C330" s="34"/>
+      <c r="D330" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E330" s="32"/>
-      <c r="F330" s="32"/>
+      <c r="E330" s="35"/>
+      <c r="F330" s="35"/>
       <c r="G330" s="8"/>
     </row>
     <row r="331" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8734,10 +8575,10 @@
       <c r="C331" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D331" s="31" t="s">
+      <c r="D331" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E331" s="31"/>
+      <c r="E331" s="34"/>
       <c r="F331" s="2" t="s">
         <v>6</v>
       </c>
@@ -8894,8 +8735,8 @@
         <f>IF(B340="","",TEXT(B340,"dddd"))</f>
         <v/>
       </c>
-      <c r="D340" s="34"/>
-      <c r="E340" s="34"/>
+      <c r="D340" s="32"/>
+      <c r="E340" s="32"/>
       <c r="F340" s="12"/>
       <c r="G340" s="8"/>
     </row>
@@ -8906,8 +8747,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D341" s="34"/>
-      <c r="E341" s="34"/>
+      <c r="D341" s="32"/>
+      <c r="E341" s="32"/>
       <c r="F341" s="12"/>
       <c r="G341" s="8"/>
     </row>
@@ -8918,8 +8759,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D342" s="34"/>
-      <c r="E342" s="34"/>
+      <c r="D342" s="32"/>
+      <c r="E342" s="32"/>
       <c r="F342" s="12"/>
       <c r="G342" s="8"/>
     </row>
@@ -8930,8 +8771,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D343" s="34"/>
-      <c r="E343" s="34"/>
+      <c r="D343" s="32"/>
+      <c r="E343" s="32"/>
       <c r="F343" s="12"/>
       <c r="G343" s="8"/>
     </row>
@@ -8942,8 +8783,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D344" s="34"/>
-      <c r="E344" s="34"/>
+      <c r="D344" s="32"/>
+      <c r="E344" s="32"/>
       <c r="F344" s="12"/>
       <c r="G344" s="8"/>
     </row>
@@ -8954,8 +8795,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D345" s="34"/>
-      <c r="E345" s="34"/>
+      <c r="D345" s="32"/>
+      <c r="E345" s="32"/>
       <c r="F345" s="12"/>
       <c r="G345" s="8"/>
     </row>
@@ -8966,8 +8807,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D346" s="34"/>
-      <c r="E346" s="34"/>
+      <c r="D346" s="32"/>
+      <c r="E346" s="32"/>
       <c r="F346" s="12"/>
       <c r="G346" s="8"/>
     </row>
@@ -8978,8 +8819,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D347" s="34"/>
-      <c r="E347" s="34"/>
+      <c r="D347" s="32"/>
+      <c r="E347" s="32"/>
       <c r="F347" s="12"/>
       <c r="G347" s="8"/>
     </row>
@@ -8990,8 +8831,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D348" s="34"/>
-      <c r="E348" s="34"/>
+      <c r="D348" s="32"/>
+      <c r="E348" s="32"/>
       <c r="F348" s="12"/>
       <c r="G348" s="8"/>
     </row>
@@ -9002,8 +8843,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D349" s="34"/>
-      <c r="E349" s="34"/>
+      <c r="D349" s="32"/>
+      <c r="E349" s="32"/>
       <c r="F349" s="12"/>
       <c r="G349" s="8"/>
     </row>
@@ -9014,8 +8855,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D350" s="34"/>
-      <c r="E350" s="34"/>
+      <c r="D350" s="32"/>
+      <c r="E350" s="32"/>
       <c r="F350" s="12"/>
       <c r="G350" s="8"/>
     </row>
@@ -9026,8 +8867,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D351" s="34"/>
-      <c r="E351" s="34"/>
+      <c r="D351" s="32"/>
+      <c r="E351" s="32"/>
       <c r="F351" s="12"/>
       <c r="G351" s="8"/>
     </row>
@@ -9038,8 +8879,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D352" s="34"/>
-      <c r="E352" s="34"/>
+      <c r="D352" s="32"/>
+      <c r="E352" s="32"/>
       <c r="F352" s="12"/>
       <c r="G352" s="8"/>
     </row>
@@ -9050,8 +8891,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D353" s="34"/>
-      <c r="E353" s="34"/>
+      <c r="D353" s="32"/>
+      <c r="E353" s="32"/>
       <c r="F353" s="12"/>
       <c r="G353" s="8"/>
     </row>
@@ -9062,8 +8903,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D354" s="34"/>
-      <c r="E354" s="34"/>
+      <c r="D354" s="32"/>
+      <c r="E354" s="32"/>
       <c r="F354" s="12"/>
       <c r="G354" s="8"/>
     </row>
@@ -9074,8 +8915,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D355" s="34"/>
-      <c r="E355" s="34"/>
+      <c r="D355" s="32"/>
+      <c r="E355" s="32"/>
       <c r="F355" s="12"/>
       <c r="G355" s="8"/>
     </row>
@@ -9086,8 +8927,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D356" s="34"/>
-      <c r="E356" s="34"/>
+      <c r="D356" s="32"/>
+      <c r="E356" s="32"/>
       <c r="F356" s="12"/>
       <c r="G356" s="8"/>
     </row>
@@ -9098,8 +8939,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D357" s="34"/>
-      <c r="E357" s="34"/>
+      <c r="D357" s="32"/>
+      <c r="E357" s="32"/>
       <c r="F357" s="12"/>
       <c r="G357" s="8"/>
     </row>
@@ -9110,8 +8951,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D358" s="34"/>
-      <c r="E358" s="34"/>
+      <c r="D358" s="32"/>
+      <c r="E358" s="32"/>
       <c r="F358" s="12"/>
       <c r="G358" s="8"/>
     </row>
@@ -9122,8 +8963,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D359" s="34"/>
-      <c r="E359" s="34"/>
+      <c r="D359" s="32"/>
+      <c r="E359" s="32"/>
       <c r="F359" s="12"/>
       <c r="G359" s="8"/>
     </row>
@@ -9134,8 +8975,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D360" s="34"/>
-      <c r="E360" s="34"/>
+      <c r="D360" s="32"/>
+      <c r="E360" s="32"/>
       <c r="F360" s="12"/>
       <c r="G360" s="8"/>
     </row>
@@ -9146,8 +8987,8 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D361" s="34"/>
-      <c r="E361" s="34"/>
+      <c r="D361" s="32"/>
+      <c r="E361" s="32"/>
       <c r="F361" s="12"/>
       <c r="G361" s="8"/>
     </row>
@@ -9158,16 +8999,16 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D362" s="34"/>
-      <c r="E362" s="34"/>
+      <c r="D362" s="32"/>
+      <c r="E362" s="32"/>
       <c r="F362" s="12"/>
       <c r="G362" s="8"/>
     </row>
     <row r="363" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="45"/>
+      <c r="C363" s="46"/>
+      <c r="D363" s="47"/>
       <c r="E363" s="7" t="s">
         <v>19</v>
       </c>
@@ -9194,22 +9035,22 @@
       <c r="C365" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D365" s="29"/>
-      <c r="E365" s="38"/>
-      <c r="F365" s="30"/>
+      <c r="D365" s="42"/>
+      <c r="E365" s="43"/>
+      <c r="F365" s="44"/>
       <c r="G365" s="8"/>
     </row>
     <row r="366" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8"/>
-      <c r="B366" s="31" t="s">
+      <c r="B366" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C366" s="31"/>
-      <c r="D366" s="32" t="s">
+      <c r="C366" s="34"/>
+      <c r="D366" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E366" s="32"/>
-      <c r="F366" s="32"/>
+      <c r="E366" s="35"/>
+      <c r="F366" s="35"/>
       <c r="G366" s="8"/>
     </row>
     <row r="367" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9220,10 +9061,10 @@
       <c r="C367" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D367" s="31" t="s">
+      <c r="D367" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E367" s="31"/>
+      <c r="E367" s="34"/>
       <c r="F367" s="2" t="s">
         <v>6</v>
       </c>
@@ -9380,8 +9221,8 @@
         <f>IF(B376="","",TEXT(B376,"dddd"))</f>
         <v/>
       </c>
-      <c r="D376" s="34"/>
-      <c r="E376" s="34"/>
+      <c r="D376" s="32"/>
+      <c r="E376" s="32"/>
       <c r="F376" s="12"/>
       <c r="G376" s="8"/>
     </row>
@@ -9392,8 +9233,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D377" s="34"/>
-      <c r="E377" s="34"/>
+      <c r="D377" s="32"/>
+      <c r="E377" s="32"/>
       <c r="F377" s="12"/>
       <c r="G377" s="8"/>
     </row>
@@ -9404,8 +9245,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D378" s="34"/>
-      <c r="E378" s="34"/>
+      <c r="D378" s="32"/>
+      <c r="E378" s="32"/>
       <c r="F378" s="12"/>
       <c r="G378" s="8"/>
     </row>
@@ -9416,8 +9257,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D379" s="34"/>
-      <c r="E379" s="34"/>
+      <c r="D379" s="32"/>
+      <c r="E379" s="32"/>
       <c r="F379" s="12"/>
       <c r="G379" s="8"/>
     </row>
@@ -9428,8 +9269,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D380" s="34"/>
-      <c r="E380" s="34"/>
+      <c r="D380" s="32"/>
+      <c r="E380" s="32"/>
       <c r="F380" s="12"/>
       <c r="G380" s="8"/>
     </row>
@@ -9440,8 +9281,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D381" s="34"/>
-      <c r="E381" s="34"/>
+      <c r="D381" s="32"/>
+      <c r="E381" s="32"/>
       <c r="F381" s="12"/>
       <c r="G381" s="8"/>
     </row>
@@ -9452,8 +9293,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D382" s="34"/>
-      <c r="E382" s="34"/>
+      <c r="D382" s="32"/>
+      <c r="E382" s="32"/>
       <c r="F382" s="12"/>
       <c r="G382" s="8"/>
     </row>
@@ -9464,8 +9305,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D383" s="34"/>
-      <c r="E383" s="34"/>
+      <c r="D383" s="32"/>
+      <c r="E383" s="32"/>
       <c r="F383" s="12"/>
       <c r="G383" s="8"/>
     </row>
@@ -9476,8 +9317,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D384" s="34"/>
-      <c r="E384" s="34"/>
+      <c r="D384" s="32"/>
+      <c r="E384" s="32"/>
       <c r="F384" s="12"/>
       <c r="G384" s="8"/>
     </row>
@@ -9488,8 +9329,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D385" s="34"/>
-      <c r="E385" s="34"/>
+      <c r="D385" s="32"/>
+      <c r="E385" s="32"/>
       <c r="F385" s="12"/>
       <c r="G385" s="8"/>
     </row>
@@ -9500,8 +9341,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D386" s="34"/>
-      <c r="E386" s="34"/>
+      <c r="D386" s="32"/>
+      <c r="E386" s="32"/>
       <c r="F386" s="12"/>
       <c r="G386" s="8"/>
     </row>
@@ -9512,8 +9353,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D387" s="34"/>
-      <c r="E387" s="34"/>
+      <c r="D387" s="32"/>
+      <c r="E387" s="32"/>
       <c r="F387" s="12"/>
       <c r="G387" s="8"/>
     </row>
@@ -9524,8 +9365,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D388" s="34"/>
-      <c r="E388" s="34"/>
+      <c r="D388" s="32"/>
+      <c r="E388" s="32"/>
       <c r="F388" s="12"/>
       <c r="G388" s="8"/>
     </row>
@@ -9536,8 +9377,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D389" s="34"/>
-      <c r="E389" s="34"/>
+      <c r="D389" s="32"/>
+      <c r="E389" s="32"/>
       <c r="F389" s="12"/>
       <c r="G389" s="8"/>
     </row>
@@ -9548,8 +9389,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D390" s="34"/>
-      <c r="E390" s="34"/>
+      <c r="D390" s="32"/>
+      <c r="E390" s="32"/>
       <c r="F390" s="12"/>
       <c r="G390" s="8"/>
     </row>
@@ -9560,8 +9401,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D391" s="34"/>
-      <c r="E391" s="34"/>
+      <c r="D391" s="32"/>
+      <c r="E391" s="32"/>
       <c r="F391" s="12"/>
       <c r="G391" s="8"/>
     </row>
@@ -9572,8 +9413,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D392" s="34"/>
-      <c r="E392" s="34"/>
+      <c r="D392" s="32"/>
+      <c r="E392" s="32"/>
       <c r="F392" s="12"/>
       <c r="G392" s="8"/>
     </row>
@@ -9584,8 +9425,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D393" s="34"/>
-      <c r="E393" s="34"/>
+      <c r="D393" s="32"/>
+      <c r="E393" s="32"/>
       <c r="F393" s="12"/>
       <c r="G393" s="8"/>
     </row>
@@ -9596,8 +9437,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D394" s="34"/>
-      <c r="E394" s="34"/>
+      <c r="D394" s="32"/>
+      <c r="E394" s="32"/>
       <c r="F394" s="12"/>
       <c r="G394" s="8"/>
     </row>
@@ -9608,8 +9449,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D395" s="34"/>
-      <c r="E395" s="34"/>
+      <c r="D395" s="32"/>
+      <c r="E395" s="32"/>
       <c r="F395" s="12"/>
       <c r="G395" s="8"/>
     </row>
@@ -9620,8 +9461,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D396" s="34"/>
-      <c r="E396" s="34"/>
+      <c r="D396" s="32"/>
+      <c r="E396" s="32"/>
       <c r="F396" s="12"/>
       <c r="G396" s="8"/>
     </row>
@@ -9632,8 +9473,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D397" s="34"/>
-      <c r="E397" s="34"/>
+      <c r="D397" s="32"/>
+      <c r="E397" s="32"/>
       <c r="F397" s="12"/>
       <c r="G397" s="8"/>
     </row>
@@ -9644,16 +9485,16 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D398" s="34"/>
-      <c r="E398" s="34"/>
+      <c r="D398" s="32"/>
+      <c r="E398" s="32"/>
       <c r="F398" s="12"/>
       <c r="G398" s="8"/>
     </row>
     <row r="399" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
-      <c r="B399" s="35"/>
-      <c r="C399" s="36"/>
-      <c r="D399" s="37"/>
+      <c r="B399" s="45"/>
+      <c r="C399" s="46"/>
+      <c r="D399" s="47"/>
       <c r="E399" s="7" t="s">
         <v>19</v>
       </c>
@@ -9680,22 +9521,22 @@
       <c r="C401" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D401" s="29"/>
-      <c r="E401" s="38"/>
-      <c r="F401" s="30"/>
+      <c r="D401" s="42"/>
+      <c r="E401" s="43"/>
+      <c r="F401" s="44"/>
       <c r="G401" s="8"/>
     </row>
     <row r="402" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
-      <c r="B402" s="31" t="s">
+      <c r="B402" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C402" s="31"/>
-      <c r="D402" s="32" t="s">
+      <c r="C402" s="34"/>
+      <c r="D402" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E402" s="32"/>
-      <c r="F402" s="32"/>
+      <c r="E402" s="35"/>
+      <c r="F402" s="35"/>
       <c r="G402" s="8"/>
     </row>
     <row r="403" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9706,10 +9547,10 @@
       <c r="C403" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D403" s="31" t="s">
+      <c r="D403" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E403" s="31"/>
+      <c r="E403" s="34"/>
       <c r="F403" s="2" t="s">
         <v>6</v>
       </c>
@@ -9866,8 +9707,8 @@
         <f>IF(B412="","",TEXT(B412,"dddd"))</f>
         <v/>
       </c>
-      <c r="D412" s="34"/>
-      <c r="E412" s="34"/>
+      <c r="D412" s="32"/>
+      <c r="E412" s="32"/>
       <c r="F412" s="12"/>
       <c r="G412" s="8"/>
     </row>
@@ -9878,8 +9719,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D413" s="34"/>
-      <c r="E413" s="34"/>
+      <c r="D413" s="32"/>
+      <c r="E413" s="32"/>
       <c r="F413" s="12"/>
       <c r="G413" s="8"/>
     </row>
@@ -9890,8 +9731,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D414" s="34"/>
-      <c r="E414" s="34"/>
+      <c r="D414" s="32"/>
+      <c r="E414" s="32"/>
       <c r="F414" s="12"/>
       <c r="G414" s="8"/>
     </row>
@@ -9902,8 +9743,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D415" s="34"/>
-      <c r="E415" s="34"/>
+      <c r="D415" s="32"/>
+      <c r="E415" s="32"/>
       <c r="F415" s="12"/>
       <c r="G415" s="8"/>
     </row>
@@ -9914,8 +9755,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D416" s="34"/>
-      <c r="E416" s="34"/>
+      <c r="D416" s="32"/>
+      <c r="E416" s="32"/>
       <c r="F416" s="12"/>
       <c r="G416" s="8"/>
     </row>
@@ -9926,8 +9767,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D417" s="34"/>
-      <c r="E417" s="34"/>
+      <c r="D417" s="32"/>
+      <c r="E417" s="32"/>
       <c r="F417" s="12"/>
       <c r="G417" s="8"/>
     </row>
@@ -9938,8 +9779,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D418" s="34"/>
-      <c r="E418" s="34"/>
+      <c r="D418" s="32"/>
+      <c r="E418" s="32"/>
       <c r="F418" s="12"/>
       <c r="G418" s="8"/>
     </row>
@@ -9950,8 +9791,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D419" s="34"/>
-      <c r="E419" s="34"/>
+      <c r="D419" s="32"/>
+      <c r="E419" s="32"/>
       <c r="F419" s="12"/>
       <c r="G419" s="8"/>
     </row>
@@ -9962,8 +9803,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D420" s="34"/>
-      <c r="E420" s="34"/>
+      <c r="D420" s="32"/>
+      <c r="E420" s="32"/>
       <c r="F420" s="12"/>
       <c r="G420" s="8"/>
     </row>
@@ -9974,8 +9815,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D421" s="34"/>
-      <c r="E421" s="34"/>
+      <c r="D421" s="32"/>
+      <c r="E421" s="32"/>
       <c r="F421" s="12"/>
       <c r="G421" s="8"/>
     </row>
@@ -9986,8 +9827,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D422" s="34"/>
-      <c r="E422" s="34"/>
+      <c r="D422" s="32"/>
+      <c r="E422" s="32"/>
       <c r="F422" s="12"/>
       <c r="G422" s="8"/>
     </row>
@@ -9998,8 +9839,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D423" s="34"/>
-      <c r="E423" s="34"/>
+      <c r="D423" s="32"/>
+      <c r="E423" s="32"/>
       <c r="F423" s="12"/>
       <c r="G423" s="8"/>
     </row>
@@ -10010,8 +9851,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D424" s="34"/>
-      <c r="E424" s="34"/>
+      <c r="D424" s="32"/>
+      <c r="E424" s="32"/>
       <c r="F424" s="12"/>
       <c r="G424" s="8"/>
     </row>
@@ -10022,8 +9863,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D425" s="34"/>
-      <c r="E425" s="34"/>
+      <c r="D425" s="32"/>
+      <c r="E425" s="32"/>
       <c r="F425" s="12"/>
       <c r="G425" s="8"/>
     </row>
@@ -10034,8 +9875,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D426" s="34"/>
-      <c r="E426" s="34"/>
+      <c r="D426" s="32"/>
+      <c r="E426" s="32"/>
       <c r="F426" s="12"/>
       <c r="G426" s="8"/>
     </row>
@@ -10046,8 +9887,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D427" s="34"/>
-      <c r="E427" s="34"/>
+      <c r="D427" s="32"/>
+      <c r="E427" s="32"/>
       <c r="F427" s="12"/>
       <c r="G427" s="8"/>
     </row>
@@ -10058,8 +9899,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D428" s="34"/>
-      <c r="E428" s="34"/>
+      <c r="D428" s="32"/>
+      <c r="E428" s="32"/>
       <c r="F428" s="12"/>
       <c r="G428" s="8"/>
     </row>
@@ -10070,8 +9911,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D429" s="34"/>
-      <c r="E429" s="34"/>
+      <c r="D429" s="32"/>
+      <c r="E429" s="32"/>
       <c r="F429" s="12"/>
       <c r="G429" s="8"/>
     </row>
@@ -10082,8 +9923,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D430" s="34"/>
-      <c r="E430" s="34"/>
+      <c r="D430" s="32"/>
+      <c r="E430" s="32"/>
       <c r="F430" s="12"/>
       <c r="G430" s="8"/>
     </row>
@@ -10094,8 +9935,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D431" s="34"/>
-      <c r="E431" s="34"/>
+      <c r="D431" s="32"/>
+      <c r="E431" s="32"/>
       <c r="F431" s="12"/>
       <c r="G431" s="8"/>
     </row>
@@ -10106,8 +9947,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D432" s="34"/>
-      <c r="E432" s="34"/>
+      <c r="D432" s="32"/>
+      <c r="E432" s="32"/>
       <c r="F432" s="12"/>
       <c r="G432" s="8"/>
     </row>
@@ -10118,8 +9959,8 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D433" s="34"/>
-      <c r="E433" s="34"/>
+      <c r="D433" s="32"/>
+      <c r="E433" s="32"/>
       <c r="F433" s="12"/>
       <c r="G433" s="8"/>
     </row>
@@ -10130,16 +9971,16 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="D434" s="34"/>
-      <c r="E434" s="34"/>
+      <c r="D434" s="32"/>
+      <c r="E434" s="32"/>
       <c r="F434" s="12"/>
       <c r="G434" s="8"/>
     </row>
     <row r="435" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="8"/>
-      <c r="B435" s="35"/>
-      <c r="C435" s="36"/>
-      <c r="D435" s="37"/>
+      <c r="B435" s="45"/>
+      <c r="C435" s="46"/>
+      <c r="D435" s="47"/>
       <c r="E435" s="7" t="s">
         <v>19</v>
       </c>
@@ -10160,20 +10001,404 @@
     </row>
   </sheetData>
   <mergeCells count="436">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="D411:E411"/>
+    <mergeCell ref="D412:E412"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="D375:E375"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="B327:D327"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="D257:F257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D433:E433"/>
+    <mergeCell ref="D434:E434"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="D428:E428"/>
+    <mergeCell ref="D429:E429"/>
+    <mergeCell ref="D430:E430"/>
+    <mergeCell ref="D431:E431"/>
+    <mergeCell ref="D432:E432"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="D422:E422"/>
+    <mergeCell ref="D423:E423"/>
+    <mergeCell ref="D424:E424"/>
+    <mergeCell ref="D425:E425"/>
+    <mergeCell ref="D426:E426"/>
+    <mergeCell ref="D415:E415"/>
+    <mergeCell ref="D416:E416"/>
+    <mergeCell ref="D417:E417"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="D419:E419"/>
+    <mergeCell ref="D420:E420"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="D414:E414"/>
+    <mergeCell ref="D413:E413"/>
+    <mergeCell ref="D403:E403"/>
+    <mergeCell ref="D404:E404"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="D406:E406"/>
+    <mergeCell ref="D407:E407"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D397:E397"/>
+    <mergeCell ref="D398:E398"/>
+    <mergeCell ref="B399:D399"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D390:E390"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="D392:E392"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="D395:E395"/>
+    <mergeCell ref="D384:E384"/>
+    <mergeCell ref="D385:E385"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="D387:E387"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="D389:E389"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="D371:E371"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="D367:E367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="D353:E353"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="D349:E349"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="D352:E352"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="D320:E320"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
@@ -10198,404 +10423,20 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="D293:F293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="D294:F294"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="D319:E319"/>
-    <mergeCell ref="D320:E320"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="D353:E353"/>
-    <mergeCell ref="D354:E354"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="D347:E347"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="D349:E349"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="D371:E371"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="D367:E367"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="D384:E384"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="D387:E387"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="D389:E389"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D397:E397"/>
-    <mergeCell ref="D398:E398"/>
-    <mergeCell ref="B399:D399"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="D390:E390"/>
-    <mergeCell ref="D391:E391"/>
-    <mergeCell ref="D392:E392"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="D395:E395"/>
-    <mergeCell ref="D420:E420"/>
-    <mergeCell ref="D408:E408"/>
-    <mergeCell ref="D414:E414"/>
-    <mergeCell ref="D413:E413"/>
-    <mergeCell ref="D403:E403"/>
-    <mergeCell ref="D404:E404"/>
-    <mergeCell ref="D405:E405"/>
-    <mergeCell ref="D406:E406"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D433:E433"/>
-    <mergeCell ref="D434:E434"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="D427:E427"/>
-    <mergeCell ref="D428:E428"/>
-    <mergeCell ref="D429:E429"/>
-    <mergeCell ref="D430:E430"/>
-    <mergeCell ref="D431:E431"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="D422:E422"/>
-    <mergeCell ref="D423:E423"/>
-    <mergeCell ref="D424:E424"/>
-    <mergeCell ref="D425:E425"/>
-    <mergeCell ref="D426:E426"/>
-    <mergeCell ref="D415:E415"/>
-    <mergeCell ref="D416:E416"/>
-    <mergeCell ref="D417:E417"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="D419:E419"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="D409:E409"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="D411:E411"/>
-    <mergeCell ref="D412:E412"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="D375:E375"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="B327:D327"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="B255:D255"/>
-    <mergeCell ref="D257:F257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="www.ExcelDataPro.Com"/>
@@ -10609,8 +10450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10666,60 +10507,60 @@
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
       <c r="P2" s="54"/>
-      <c r="Q2" s="45"/>
+      <c r="Q2" s="48"/>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="10">
         <v>700</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="10">
         <f>F3*12</f>
         <v>8400</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="46"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="49"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="47"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11081,7 +10922,7 @@
       <c r="B12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="27">
@@ -11133,7 +10974,7 @@
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -11211,7 +11052,7 @@
       <c r="B15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="27">
@@ -11629,7 +11470,7 @@
       <c r="B24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -11793,7 +11634,7 @@
       <c r="B27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -11844,8 +11685,8 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -11864,24 +11705,24 @@
     </row>
     <row r="29" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="44"/>
+      <c r="D29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="8"/>
@@ -12187,7 +12028,7 @@
       <c r="B36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="27" t="s">
@@ -12499,7 +12340,7 @@
       <c r="B43" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -12978,24 +12819,24 @@
     </row>
     <row r="53" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31" t="s">
+      <c r="C53" s="44"/>
+      <c r="D53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="8"/>
@@ -13117,7 +12958,7 @@
       <c r="B56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D56" s="27" t="s">
@@ -13857,7 +13698,7 @@
       <c r="B72" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="27" t="s">
@@ -14094,24 +13935,24 @@
     </row>
     <row r="77" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31" t="s">
+      <c r="C77" s="44"/>
+      <c r="D77" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
       <c r="P77" s="24"/>
       <c r="Q77" s="24"/>
       <c r="R77" s="8"/>
@@ -14175,7 +14016,7 @@
       <c r="B79" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D79" s="27" t="s">
@@ -14485,7 +14326,7 @@
       <c r="B86" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D86" s="27" t="s">
@@ -14539,7 +14380,7 @@
       <c r="B87" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D87" s="27" t="s">
@@ -14775,7 +14616,7 @@
       <c r="B92" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D92" s="27" t="s">
@@ -14829,7 +14670,7 @@
       <c r="B93" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D93" s="27" t="s">
@@ -14883,7 +14724,7 @@
       <c r="B94" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D94" s="27" t="s">
@@ -14957,7 +14798,7 @@
       <c r="B96" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D96" s="27" t="s">
@@ -15190,24 +15031,24 @@
     </row>
     <row r="101" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31" t="s">
+      <c r="C101" s="44"/>
+      <c r="D101" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
       <c r="P101" s="24"/>
       <c r="Q101" s="24"/>
       <c r="R101" s="8"/>
@@ -15271,7 +15112,7 @@
       <c r="B103" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D103" s="27" t="s">
@@ -15925,7 +15766,7 @@
       <c r="B117" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="29" t="s">
         <v>160</v>
       </c>
       <c r="D117" s="27" t="s">
@@ -16158,24 +15999,24 @@
     </row>
     <row r="122" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="31" t="s">
+      <c r="C122" s="44"/>
+      <c r="D122" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="31"/>
-      <c r="O122" s="31"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="34"/>
       <c r="P122" s="24"/>
       <c r="Q122" s="24"/>
       <c r="R122" s="8"/>
@@ -16889,7 +16730,9 @@
       <c r="R137" s="8"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
+      <c r="A138" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="B138" s="24" t="s">
         <v>101</v>
       </c>
@@ -17106,64 +16949,64 @@
     </row>
     <row r="142" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
-      <c r="B142" s="48" t="s">
+      <c r="B142" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C142" s="48"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="19">
-        <f>SUM(D6:D141)</f>
+        <f t="shared" ref="D142:Q142" si="38">SUM(D6:D141)</f>
         <v>13500</v>
       </c>
       <c r="E142" s="19">
-        <f>SUM(E6:E141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="F142" s="19">
-        <f>SUM(F6:F141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="G142" s="19">
-        <f>SUM(G6:G141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="H142" s="19">
-        <f>SUM(H6:H141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="I142" s="19">
-        <f>SUM(I6:I141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="J142" s="19">
-        <f>SUM(J6:J141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="K142" s="19">
-        <f>SUM(K6:K141)</f>
+        <f t="shared" si="38"/>
         <v>5100</v>
       </c>
       <c r="L142" s="19">
-        <f>SUM(L6:L141)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M142" s="19">
-        <f>SUM(M6:M141)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N142" s="19">
-        <f>SUM(N6:N141)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O142" s="19">
-        <f>SUM(O6:O141)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P142" s="19">
-        <f>SUM(P6:P141)</f>
+        <f t="shared" si="38"/>
         <v>49200</v>
       </c>
       <c r="Q142" s="19">
-        <f>SUM(Q6:Q141)</f>
+        <f t="shared" si="38"/>
         <v>824400</v>
       </c>
       <c r="R142" s="8"/>
@@ -17190,6 +17033,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:O101"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="D122:O122"/>
     <mergeCell ref="Q2:Q4"/>
@@ -17206,121 +17051,119 @@
     <mergeCell ref="D53:O53"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="D77:O77"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:O101"/>
   </mergeCells>
   <conditionalFormatting sqref="Q6:Q46 Q48:Q51 Q106">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q58 Q61 Q66 Q71 Q76 Q82 Q85 Q90 Q95">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q57">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59:Q60">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62:Q65">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q67:Q70">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:Q75">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q77">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q78:Q81">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83:Q84">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q86:Q89">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91:Q94">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q96:Q100 Q121">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q101">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q111 Q116">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q102:Q105">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q107:Q110">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q112:Q115">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q117:Q120">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
